--- a/biology/Médecine/1496_en_santé_et_médecine/1496_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1496_en_santé_et_médecine/1496_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1496_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1496_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1496 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1496_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1496_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de la pharmacie de l'hôpital du roi (es) à Burgos, en Castille, première du genre dans cette ville[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de la pharmacie de l'hôpital du roi (es) à Burgos, en Castille, première du genre dans cette ville.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1496_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1496_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16 février : édition à Milan, chez Léonard Pachel, du Thesaurus aromatariorum de Paul Suard[2], premier ouvrage de pharmacie rédigé par un apothicaire[3].
-Sébastien Brant, Eulogium de scorra pestilentialis sive Mala de Franzos , Bâle[4].
-Joseph Grünpeck (1473-1532), Tractatus de pestilentiali scorra, commentaire de l'Eulogium de scorra pestilentialis de Brant[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16 février : édition à Milan, chez Léonard Pachel, du Thesaurus aromatariorum de Paul Suard, premier ouvrage de pharmacie rédigé par un apothicaire.
+Sébastien Brant, Eulogium de scorra pestilentialis sive Mala de Franzos , Bâle.
+Joseph Grünpeck (1473-1532), Tractatus de pestilentiali scorra, commentaire de l'Eulogium de scorra pestilentialis de Brant.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1496_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1496_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1496 : Victor Trincavella (mort en 1563), médecin et philosophe vénitien, reçu docteur en médecine à Padoue, établi à Venise[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1496 : Victor Trincavella (mort en 1563), médecin et philosophe vénitien, reçu docteur en médecine à Padoue, établi à Venise.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1496_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1496_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,11 +621,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>19 mars : Marc de Montegallo (né en 1425), moine franciscain italien, fondateur du mont de piété de Vicence (en), béatifié par l'Église catholique, ayant, d'après un hagiographe, étudié la médecine à Pérouse et Bologne, enregistré en tout cas comme médecin par le conseil de ville d'Ascoli Piceno et auteur d'une Tabula della salute dont les deux derniers chapitres traitent de médecine[6].
-Angelo Catho (né probablement avant 1440), médecin et astrologue, membre du collège des médecins de Naples, au service du roi Ferrante, puis de Louis XI, et devenu archevêque de Vienne[7].
-Amirdovlat d'Amasée (né en 1415), médecin arménien au service de Mehmed II à Constantinople, auteur d'une pharmacopée de plus de trois mille sept cents médicaments rédigée en sept langues entre 1478 et 1482[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 mars : Marc de Montegallo (né en 1425), moine franciscain italien, fondateur du mont de piété de Vicence (en), béatifié par l'Église catholique, ayant, d'après un hagiographe, étudié la médecine à Pérouse et Bologne, enregistré en tout cas comme médecin par le conseil de ville d'Ascoli Piceno et auteur d'une Tabula della salute dont les deux derniers chapitres traitent de médecine.
+Angelo Catho (né probablement avant 1440), médecin et astrologue, membre du collège des médecins de Naples, au service du roi Ferrante, puis de Louis XI, et devenu archevêque de Vienne.
+Amirdovlat d'Amasée (né en 1415), médecin arménien au service de Mehmed II à Constantinople, auteur d'une pharmacopée de plus de trois mille sept cents médicaments rédigée en sept langues entre 1478 et 1482.</t>
         </is>
       </c>
     </row>
